--- a/IRControll_Analog_Sensors/Map Registers.xlsx
+++ b/IRControll_Analog_Sensors/Map Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0FDEF-F457-4074-93AC-83B58EE06B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C11F11F-570A-464A-8FE8-96EDC19A509F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Десятичная</t>
   </si>
@@ -125,10 +125,7 @@
     <t>CH8</t>
   </si>
   <si>
-    <t>CH1-CH8</t>
-  </si>
-  <si>
-    <t>Регистр отображаюший состояние сенсоров в битах</t>
+    <t>0-4095</t>
   </si>
 </sst>
 </file>
@@ -654,7 +651,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +696,9 @@
         <v>26</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -713,7 +712,9 @@
         <v>27</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -727,7 +728,9 @@
         <v>28</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -816,19 +819,15 @@
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
     </row>
